--- a/Excel/Weekly Site Performance.xlsx
+++ b/Excel/Weekly Site Performance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="38">
   <si>
     <t>SITE_ID</t>
   </si>

--- a/Excel/Weekly Site Performance.xlsx
+++ b/Excel/Weekly Site Performance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="38">
   <si>
     <t>SITE_ID</t>
   </si>

--- a/Excel/Weekly Site Performance.xlsx
+++ b/Excel/Weekly Site Performance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="38">
   <si>
     <t>SITE_ID</t>
   </si>

--- a/Excel/Weekly Site Performance.xlsx
+++ b/Excel/Weekly Site Performance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="38">
   <si>
     <t>SITE_ID</t>
   </si>

--- a/Excel/Weekly Site Performance.xlsx
+++ b/Excel/Weekly Site Performance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="38">
   <si>
     <t>SITE_ID</t>
   </si>

--- a/Excel/Weekly Site Performance.xlsx
+++ b/Excel/Weekly Site Performance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="38">
   <si>
     <t>SITE_ID</t>
   </si>

--- a/Excel/Weekly Site Performance.xlsx
+++ b/Excel/Weekly Site Performance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="38">
   <si>
     <t>SITE_ID</t>
   </si>

--- a/Excel/Weekly Site Performance.xlsx
+++ b/Excel/Weekly Site Performance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="38">
   <si>
     <t>SITE_ID</t>
   </si>

--- a/Excel/Weekly Site Performance.xlsx
+++ b/Excel/Weekly Site Performance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="39">
   <si>
     <t>SITE_ID</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>120</t>
+  </si>
+  <si>
+    <t>2021-12-12</t>
   </si>
 </sst>
 </file>
@@ -655,8 +658,8 @@
       <c r="A2" s="3">
         <v>1001073</v>
       </c>
-      <c r="B2" s="1">
-        <v>42567</v>
+      <c r="B2" t="s">
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>

--- a/Excel/Weekly Site Performance.xlsx
+++ b/Excel/Weekly Site Performance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="39">
   <si>
     <t>SITE_ID</t>
   </si>

--- a/Excel/Weekly Site Performance.xlsx
+++ b/Excel/Weekly Site Performance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="39">
   <si>
     <t>SITE_ID</t>
   </si>

--- a/Excel/Weekly Site Performance.xlsx
+++ b/Excel/Weekly Site Performance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="39">
   <si>
     <t>SITE_ID</t>
   </si>

--- a/Excel/Weekly Site Performance.xlsx
+++ b/Excel/Weekly Site Performance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="39">
   <si>
     <t>SITE_ID</t>
   </si>

--- a/Excel/Weekly Site Performance.xlsx
+++ b/Excel/Weekly Site Performance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="39">
   <si>
     <t>SITE_ID</t>
   </si>

--- a/Excel/Weekly Site Performance.xlsx
+++ b/Excel/Weekly Site Performance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="39">
   <si>
     <t>SITE_ID</t>
   </si>

--- a/Excel/Weekly Site Performance.xlsx
+++ b/Excel/Weekly Site Performance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="39">
   <si>
     <t>SITE_ID</t>
   </si>
